--- a/dz34/dz34_dod.xlsx
+++ b/dz34/dz34_dod.xlsx
@@ -117,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -175,10 +175,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -188,18 +188,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -215,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,9 +232,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +517,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +530,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -554,7 +542,7 @@
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
